--- a/out_test/validation_report.xlsx
+++ b/out_test/validation_report.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="missing_in_parsed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="extra_in_parsed" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +454,2206 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>parsed_sections</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>common_sections</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>missing_in_parsed</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>extra_in_parsed</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>doc_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>section_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>full_path</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>parent_id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Overview</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.1 Overview</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.2 Purpose</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.2.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Scope</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.2.1 Scope</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Section Overview</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.3 Section Overview</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Conventions</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.4 Conventions</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.4.1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Precedence</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.4.1 Precedence</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.4.2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.4.2 Keywords</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.4.3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Numbering</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.4.3 Numbering</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Related Documents</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.5 Related Documents</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Terms and Abbreviations</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.6 Terms and Abbreviations</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Parameter Values</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.7 Parameter Values</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SOP* Communication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.4 SOP* Communication</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Operational Overview</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.5 Operational Overview</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.5.2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sink Operation</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.5.2 Sink Operation</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.5.3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cable Plugs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.5.3 Cable Plugs</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Architectural Overview</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.6 Architectural Overview</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>doc_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>section_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>full_path</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_page</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>parent_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.6.1.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>System Policy Manager</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.6.1.1 System Policy Manager</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6.1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.6.1.2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Device Policy Manager</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.6.1.2 Device Policy Manager</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2.6.1.3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Policy Engine</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.6.1.3 Policy Engine</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.6.2.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Protocol Layer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.6.2.1 Protocol Layer</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6.2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2.6.2.2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PHY Layer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.6.2.2 PHY Layer</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6.2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2.6.3.1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Policy Engine</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.6.3.1 Policy Engine</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6.3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2.6.3.2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Protocol Layer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.6.3.2 Protocol Layer</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6.3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.6.3.3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PHY Layer</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.6.3.3 PHY Layer</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>71</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6.3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.6.4.1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.6.4.1 Source</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>71</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6.4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2.6.4.2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sink</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.6.4.2 Sink</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6.4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2.6.4.3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dual-Role Power Ports</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.6.4.3 Dual-Role Power Ports</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>71</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6.4</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.6.4.4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dead Battery or Lost Power Detection</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.6.4.4 Dead Battery or Lost Power Detection</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>71</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6.4</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2.6.4.5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>V CONN Source</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.6.4.5 V CONN Source</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>71</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6.4</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.6.5.1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Downstream Facing Port (DFP)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.6.5.1 Downstream Facing Port (DFP)</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>71</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6.5</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.6.5.2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Upstream Facing Port (UFP)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.6.5.2 Upstream Facing Port (UFP)</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>71</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6.5</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.6.6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cable and Connectors</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.6.6 Cable and Connectors</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>72</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2.6.6.1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>USB-C Port Control</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.6.6.1 USB-C Port Control</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>72</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6.6</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2.6.7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Interactions between Non-PD, BC, and PD devices</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.6.7 Interactions between Non-PD, BC, and PD devices</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2.6.8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power Rules</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.6.8 Power Rules</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>72</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2.8.1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fixed Supply Charging Models</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.8.1 Fixed Supply Charging Models</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>75</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2.8.2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Programmable Power Supply (PPS) Charging Models</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.8.2 Programmable Power Supply (PPS) Charging Models</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Interoperability with other USB Specifications</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.1 Interoperability with other USB Specifications</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>78</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Dead Battery Detection / Unpowered Port Detection</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.2 Dead Battery Detection / Unpowered Port Detection</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>78</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cable IR Ground Drop (IR Drop)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.3 Cable IR Ground Drop (IR Drop)</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>78</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cable Type Detection</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.4 Cable Type Detection</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>78</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Physical Layer Overview</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.1 Physical Layer Overview</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>79</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Physical Layer Functions</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.2 Physical Layer Functions</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>79</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5.6.1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Packet Framing</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.6.1 Packet Framing</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>84</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5.6.1.1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Preamble</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.6.1.1 Preamble</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5.6.1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5.6.1.2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Start of Packet Sequences</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.6.1.2 Start of Packet Sequences</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>84</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5.6.1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5.6.1.2.1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Start of Packet Sequence (SOP)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.6.1.2.1 Start of Packet Sequence (SOP)</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>84</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5.6.1.2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5.6.1.2.2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Start of Packet Sequence Prime (SOP')</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.6.1.2.2 Start of Packet Sequence Prime (SOP')</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>85</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5.6.1.2</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5.6.1.2.3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Start of Packet Sequence Double Prime (SOP'')</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.6.1.2.3 Start of Packet Sequence Double Prime (SOP'')</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>85</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5.6.1.2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5.6.1.2.5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Start of Packet Sequence Double Prime Debug (SOP''_Debug)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.6.1.2.5 Start of Packet Sequence Double Prime Debug (SOP''_Debug)</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>86</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5.6.1.2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5.6.1.3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Packet Payload</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.6.1.3 Packet Payload</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>86</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5.6.1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5.6.1.4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.6.1.4 CRC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>86</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5.6.1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5.6.1.5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>End of Packet (EOP)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.6.1.5 End of Packet (EOP)</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>86</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5.6.1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5.6.2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.6.2 CRC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>86</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>USB Power Delivery Specification, Revision 3.2, Version 1.1 (2024-10)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5.6.4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Hard Reset</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.6.4 Hard Reset</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>89</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
     </row>
   </sheetData>
